--- a/data/trans_orig/TIEMPO_DOMICILIO_CAT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/TIEMPO_DOMICILIO_CAT-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número de años residiendo en el domicilio por categorías en País Vasco</t>
+          <t>Número de años residiendo en el domicilio por categorías en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3965,7 +3965,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número de años residiendo en el domicilio por categorías en Andalucia</t>
+          <t>Número de años residiendo en el domicilio por categorías en Andalucia (tasa de respuesta: 97,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7384,7 +7384,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número de años residiendo en el domicilio por categorías en C.Valenciana</t>
+          <t>Número de años residiendo en el domicilio por categorías en C.Valenciana (tasa de respuesta: 91,47%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -10803,7 +10803,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número de años residiendo en el domicilio por categorías en Barcelona</t>
+          <t>Número de años residiendo en el domicilio por categorías en Barcelona (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/TIEMPO_DOMICILIO_CAT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/TIEMPO_DOMICILIO_CAT-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>40783</t>
+          <t>33197</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>36900</t>
+          <t>29334</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>44997</t>
+          <t>36809</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>44,72%</t>
+          <t>40,13%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>35,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>49,34%</t>
+          <t>44,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>77783</t>
+          <t>70620</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>73184</t>
+          <t>66287</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>82676</t>
+          <t>75099</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>60,81%</t>
+          <t>59,9%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>57,21%</t>
+          <t>56,23%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>64,64%</t>
+          <t>63,7%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>118566</t>
+          <t>103817</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>111490</t>
+          <t>97772</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>124695</t>
+          <t>109662</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>54,11%</t>
+          <t>51,75%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>50,88%</t>
+          <t>48,74%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>56,91%</t>
+          <t>54,66%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19335</t>
+          <t>19573</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15950</t>
+          <t>16369</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22948</t>
+          <t>23053</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>27,87%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21504</t>
+          <t>19928</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18072</t>
+          <t>16759</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25172</t>
+          <t>23217</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>40838</t>
+          <t>39501</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>36527</t>
+          <t>35573</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>45992</t>
+          <t>44814</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>22,34%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12451</t>
+          <t>12803</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9781</t>
+          <t>9917</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15409</t>
+          <t>16274</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>15,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11459</t>
+          <t>11601</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8551</t>
+          <t>9018</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14733</t>
+          <t>14657</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>23910</t>
+          <t>24404</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>20180</t>
+          <t>20372</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>28632</t>
+          <t>29085</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>14,5%</t>
         </is>
       </c>
     </row>
@@ -1075,32 +1075,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9718</t>
+          <t>9057</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7217</t>
+          <t>6922</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12844</t>
+          <t>12472</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1110,32 +1110,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9257</t>
+          <t>9051</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6764</t>
+          <t>6657</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12121</t>
+          <t>11808</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>18975</t>
+          <t>18108</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>15545</t>
+          <t>14727</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>22739</t>
+          <t>21602</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>10,77%</t>
         </is>
       </c>
     </row>
@@ -1188,32 +1188,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4852</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2935</t>
+          <t>2713</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7566</t>
+          <t>6299</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1223,32 +1223,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3251</t>
+          <t>2646</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1870</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5212</t>
+          <t>4479</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1258,32 +1258,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>8103</t>
+          <t>6803</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>5509</t>
+          <t>4851</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>11033</t>
+          <t>9416</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4058</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2569</t>
+          <t>2528</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6543</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1336,32 +1336,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4658</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3039</t>
+          <t>2659</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6880</t>
+          <t>6122</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1371,17 +1371,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>8716</t>
+          <t>7981</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>6267</t>
+          <t>5692</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>11608</t>
+          <t>10640</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
@@ -1414,17 +1414,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1484,17 +1484,17 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1531,32 +1531,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>116552</t>
+          <t>100914</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>109022</t>
+          <t>93548</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>126409</t>
+          <t>108631</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,27%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1566,32 +1566,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>127172</t>
+          <t>117403</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>118473</t>
+          <t>109761</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>135609</t>
+          <t>125453</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>27,95%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1601,32 +1601,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>243723</t>
+          <t>218316</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>230948</t>
+          <t>208006</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>254742</t>
+          <t>229692</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>23,8%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>25,04%</t>
         </is>
       </c>
     </row>
@@ -1644,32 +1644,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>128465</t>
+          <t>123828</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>120518</t>
+          <t>115261</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>136579</t>
+          <t>132910</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>26,45%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>29,47%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1679,32 +1679,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>121502</t>
+          <t>119904</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>112813</t>
+          <t>111708</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>130148</t>
+          <t>127942</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>27,65%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1714,32 +1714,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>249967</t>
+          <t>243732</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>237905</t>
+          <t>231003</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>261575</t>
+          <t>254583</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>27,69%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>27,76%</t>
         </is>
       </c>
     </row>
@@ -1757,32 +1757,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>82715</t>
+          <t>91502</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>75626</t>
+          <t>84686</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>89764</t>
+          <t>100201</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1792,32 +1792,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>68751</t>
+          <t>77239</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>62679</t>
+          <t>70661</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>75957</t>
+          <t>84753</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1827,32 +1827,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>151466</t>
+          <t>168740</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>142383</t>
+          <t>158190</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>161745</t>
+          <t>179067</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>19,52%</t>
         </is>
       </c>
     </row>
@@ -1870,32 +1870,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>51033</t>
+          <t>61156</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>45604</t>
+          <t>54663</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>57228</t>
+          <t>68226</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1905,32 +1905,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>50836</t>
+          <t>58909</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>45436</t>
+          <t>52154</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>57533</t>
+          <t>65912</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1940,32 +1940,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>101869</t>
+          <t>120064</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>93905</t>
+          <t>111052</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>110441</t>
+          <t>129692</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>14,14%</t>
         </is>
       </c>
     </row>
@@ -1983,32 +1983,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>32325</t>
+          <t>37239</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27694</t>
+          <t>31712</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>37236</t>
+          <t>43179</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2018,32 +2018,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27089</t>
+          <t>28496</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>22775</t>
+          <t>23979</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>32179</t>
+          <t>33481</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2053,32 +2053,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>59414</t>
+          <t>65735</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>52966</t>
+          <t>58695</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>66175</t>
+          <t>73338</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>8,0%</t>
         </is>
       </c>
     </row>
@@ -2096,32 +2096,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>52417</t>
+          <t>53577</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>46629</t>
+          <t>47263</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>58646</t>
+          <t>59937</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2131,32 +2131,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>44000</t>
+          <t>46973</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>38676</t>
+          <t>40938</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>49982</t>
+          <t>53548</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2166,32 +2166,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>96417</t>
+          <t>100550</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>88636</t>
+          <t>91967</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>104498</t>
+          <t>108896</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>11,87%</t>
         </is>
       </c>
     </row>
@@ -2209,17 +2209,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2244,17 +2244,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2279,17 +2279,17 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2326,32 +2326,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>22997</t>
+          <t>21093</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>19030</t>
+          <t>17582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>27407</t>
+          <t>25096</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2361,32 +2361,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>24528</t>
+          <t>25081</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>20971</t>
+          <t>21523</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>29326</t>
+          <t>29557</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2396,32 +2396,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>47524</t>
+          <t>46174</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>41864</t>
+          <t>41543</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>53669</t>
+          <t>51850</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>12,17%</t>
         </is>
       </c>
     </row>
@@ -2439,32 +2439,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>42029</t>
+          <t>48253</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>37450</t>
+          <t>42275</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>46976</t>
+          <t>53362</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>28,91%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2474,32 +2474,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>61333</t>
+          <t>67655</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>55728</t>
+          <t>60995</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>67417</t>
+          <t>74555</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>28,02%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>33,73%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2509,32 +2509,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>103362</t>
+          <t>115908</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>96312</t>
+          <t>107718</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>125100</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>31,26%</t>
+          <t>29,36%</t>
         </is>
       </c>
     </row>
@@ -2552,32 +2552,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>35327</t>
+          <t>45365</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>30940</t>
+          <t>39762</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>39998</t>
+          <t>51029</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>24,58%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>27,65%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2587,32 +2587,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>47868</t>
+          <t>58423</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>42566</t>
+          <t>52496</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>53543</t>
+          <t>65379</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>26,79%</t>
+          <t>27,08%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2622,32 +2622,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>83195</t>
+          <t>103789</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>76486</t>
+          <t>95427</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>90603</t>
+          <t>112304</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>26,36%</t>
         </is>
       </c>
     </row>
@@ -2665,32 +2665,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>22067</t>
+          <t>28837</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>18334</t>
+          <t>24130</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>26205</t>
+          <t>33764</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2700,32 +2700,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>27730</t>
+          <t>40980</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>23740</t>
+          <t>35148</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>32144</t>
+          <t>47069</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>19,49%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2735,32 +2735,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>49798</t>
+          <t>69818</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>44841</t>
+          <t>62790</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>55995</t>
+          <t>78479</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>18,42%</t>
         </is>
       </c>
     </row>
@@ -2778,32 +2778,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>13838</t>
+          <t>18237</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>11147</t>
+          <t>14400</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>17160</t>
+          <t>22826</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2813,32 +2813,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>18485</t>
+          <t>24268</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>15064</t>
+          <t>19924</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>22345</t>
+          <t>29346</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2848,32 +2848,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>32323</t>
+          <t>42506</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>27873</t>
+          <t>36487</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>37888</t>
+          <t>48656</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>11,42%</t>
         </is>
       </c>
     </row>
@@ -2891,32 +2891,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>18997</t>
+          <t>22798</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>15425</t>
+          <t>18297</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>22768</t>
+          <t>27164</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2926,32 +2926,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>19932</t>
+          <t>25048</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>16806</t>
+          <t>20571</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>24769</t>
+          <t>30186</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2961,32 +2961,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>38928</t>
+          <t>47845</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>34018</t>
+          <t>41734</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>44381</t>
+          <t>54472</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>12,79%</t>
         </is>
       </c>
     </row>
@@ -3004,17 +3004,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3074,17 +3074,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3121,32 +3121,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>180331</t>
+          <t>155203</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>170153</t>
+          <t>146337</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>191012</t>
+          <t>165648</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3156,32 +3156,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>229482</t>
+          <t>213104</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>218755</t>
+          <t>202376</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>241825</t>
+          <t>224885</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>29,91%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>31,52%</t>
+          <t>27,82%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3191,32 +3191,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>409814</t>
+          <t>368307</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>394819</t>
+          <t>354394</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>426065</t>
+          <t>382344</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>26,73%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>28,84%</t>
+          <t>24,77%</t>
         </is>
       </c>
     </row>
@@ -3234,32 +3234,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>189829</t>
+          <t>191654</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>179003</t>
+          <t>182145</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>200372</t>
+          <t>202187</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>26,06%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3269,32 +3269,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>204339</t>
+          <t>207487</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>193961</t>
+          <t>196305</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>214530</t>
+          <t>219819</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>24,29%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>27,2%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3304,32 +3304,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>394168</t>
+          <t>399141</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>379859</t>
+          <t>383959</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>409531</t>
+          <t>413472</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>26,78%</t>
         </is>
       </c>
     </row>
@@ -3347,32 +3347,32 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>130493</t>
+          <t>149670</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>121121</t>
+          <t>140104</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>140862</t>
+          <t>160794</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3382,32 +3382,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>128078</t>
+          <t>147263</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>118757</t>
+          <t>136451</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>137049</t>
+          <t>157745</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3417,32 +3417,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>258572</t>
+          <t>296933</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>245198</t>
+          <t>283502</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>271333</t>
+          <t>311766</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>20,19%</t>
         </is>
       </c>
     </row>
@@ -3460,32 +3460,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>82818</t>
+          <t>99051</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>75573</t>
+          <t>90905</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>91291</t>
+          <t>107865</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3495,32 +3495,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>87823</t>
+          <t>108940</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>81221</t>
+          <t>100017</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>97081</t>
+          <t>119543</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3530,32 +3530,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>170642</t>
+          <t>207990</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>160058</t>
+          <t>195589</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>181540</t>
+          <t>222399</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>14,41%</t>
         </is>
       </c>
     </row>
@@ -3573,32 +3573,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>51015</t>
+          <t>59634</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>44672</t>
+          <t>53149</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>57321</t>
+          <t>66991</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3608,32 +3608,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>48826</t>
+          <t>55410</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>43027</t>
+          <t>48390</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>54789</t>
+          <t>62282</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3643,32 +3643,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>99841</t>
+          <t>115044</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>91614</t>
+          <t>105600</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>108902</t>
+          <t>126822</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>8,21%</t>
         </is>
       </c>
     </row>
@@ -3686,32 +3686,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>75472</t>
+          <t>80311</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>68164</t>
+          <t>73879</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>83139</t>
+          <t>88687</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3721,32 +3721,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>68589</t>
+          <t>76065</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>61564</t>
+          <t>68321</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>75941</t>
+          <t>83706</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3756,32 +3756,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>144061</t>
+          <t>156376</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>133372</t>
+          <t>146623</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>154341</t>
+          <t>167247</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>10,83%</t>
         </is>
       </c>
     </row>
@@ -3799,17 +3799,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3869,17 +3869,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -4160,12 +4160,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>40531</t>
+          <t>40269</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>59439</t>
+          <t>60953</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4175,12 +4175,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>35,16%</t>
+          <t>34,93%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>51,56%</t>
+          <t>52,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -4195,12 +4195,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>93632</t>
+          <t>94545</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>115234</t>
+          <t>116680</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4210,12 +4210,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>44,63%</t>
+          <t>45,06%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>54,93%</t>
+          <t>55,61%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4230,12 +4230,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>140478</t>
+          <t>140405</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>170744</t>
+          <t>169584</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -4245,12 +4245,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>43,19%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>52,52%</t>
+          <t>52,17%</t>
         </is>
       </c>
     </row>
@@ -4273,12 +4273,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27881</t>
+          <t>27387</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45365</t>
+          <t>46209</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4288,12 +4288,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>39,35%</t>
+          <t>40,08%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4308,12 +4308,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>57511</t>
+          <t>58244</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>78880</t>
+          <t>79346</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>37,6%</t>
+          <t>37,82%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -4343,12 +4343,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>90191</t>
+          <t>91582</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>117426</t>
+          <t>118258</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -4358,12 +4358,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>36,38%</t>
         </is>
       </c>
     </row>
@@ -4386,12 +4386,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6486</t>
+          <t>6966</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17908</t>
+          <t>18944</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4401,12 +4401,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -4421,12 +4421,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8870</t>
+          <t>9102</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>20437</t>
+          <t>19894</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -4456,12 +4456,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>17620</t>
+          <t>18081</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>32950</t>
+          <t>34495</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4471,12 +4471,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>10,61%</t>
         </is>
       </c>
     </row>
@@ -4499,12 +4499,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5775</t>
+          <t>5579</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17310</t>
+          <t>16656</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4514,12 +4514,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4534,12 +4534,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6403</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19912</t>
+          <t>21145</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4549,12 +4549,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4569,12 +4569,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>14503</t>
+          <t>13927</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>32737</t>
+          <t>32603</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4584,12 +4584,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>10,03%</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4385</t>
+          <t>4744</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4647,12 +4647,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>12742</t>
+          <t>13341</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4662,12 +4662,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4682,12 +4682,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>13946</t>
+          <t>14193</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4697,12 +4697,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,37%</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2427</t>
+          <t>2539</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12185</t>
+          <t>12888</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4740,12 +4740,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -4760,12 +4760,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1795</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14779</t>
+          <t>13144</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4775,12 +4775,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -4795,12 +4795,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>5966</t>
+          <t>5995</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>20096</t>
+          <t>20698</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,37%</t>
         </is>
       </c>
     </row>
@@ -4955,12 +4955,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76738</t>
+          <t>77029</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>109639</t>
+          <t>110518</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4970,12 +4970,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>17,36%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4990,12 +4990,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>32025</t>
+          <t>35668</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>107935</t>
+          <t>107669</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5005,12 +5005,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -5025,12 +5025,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>95211</t>
+          <t>106028</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>202405</t>
+          <t>206387</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5040,12 +5040,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>14,53%</t>
         </is>
       </c>
     </row>
@@ -5068,12 +5068,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>180148</t>
+          <t>176745</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>229929</t>
+          <t>229802</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>36,09%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>264808</t>
+          <t>262142</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>597337</t>
+          <t>593373</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5118,12 +5118,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>33,8%</t>
+          <t>33,46%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>76,24%</t>
+          <t>75,73%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5138,12 +5138,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>462143</t>
+          <t>461323</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>920352</t>
+          <t>924752</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5153,12 +5153,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>32,54%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>64,81%</t>
+          <t>65,12%</t>
         </is>
       </c>
     </row>
@@ -5181,12 +5181,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>90223</t>
+          <t>88768</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>131788</t>
+          <t>131567</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5196,12 +5196,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -5216,12 +5216,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>51865</t>
+          <t>50284</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>150443</t>
+          <t>152558</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -5231,12 +5231,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>127620</t>
+          <t>135424</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>263601</t>
+          <t>266461</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -5266,12 +5266,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>18,76%</t>
         </is>
       </c>
     </row>
@@ -5294,12 +5294,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>72206</t>
+          <t>73363</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>116412</t>
+          <t>116504</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -5309,12 +5309,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -5329,12 +5329,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>29090</t>
+          <t>31387</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>96062</t>
+          <t>98897</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -5344,12 +5344,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -5364,12 +5364,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>95165</t>
+          <t>99959</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>195204</t>
+          <t>199803</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -5379,12 +5379,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>14,07%</t>
         </is>
       </c>
     </row>
@@ -5407,12 +5407,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>38707</t>
+          <t>40268</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>75365</t>
+          <t>73262</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5422,12 +5422,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -5442,12 +5442,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23191</t>
+          <t>23605</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>76502</t>
+          <t>78065</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>64256</t>
+          <t>66281</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>138846</t>
+          <t>137803</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>9,7%</t>
         </is>
       </c>
     </row>
@@ -5520,12 +5520,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>59196</t>
+          <t>58603</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>111573</t>
+          <t>112953</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5535,12 +5535,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5555,12 +5555,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>33889</t>
+          <t>35656</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>112344</t>
+          <t>114574</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>100218</t>
+          <t>94086</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>209715</t>
+          <t>205624</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>14,48%</t>
         </is>
       </c>
     </row>
@@ -5750,12 +5750,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>21397</t>
+          <t>20388</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>39187</t>
+          <t>39255</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5765,12 +5765,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -5785,12 +5785,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>17476</t>
+          <t>18317</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>31421</t>
+          <t>33168</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5800,12 +5800,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>42714</t>
+          <t>43410</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>66888</t>
+          <t>66431</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5835,12 +5835,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>14,49%</t>
         </is>
       </c>
     </row>
@@ -5863,12 +5863,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>62571</t>
+          <t>62033</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>92222</t>
+          <t>91592</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5878,12 +5878,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>39,11%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5898,12 +5898,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>61292</t>
+          <t>61453</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>83228</t>
+          <t>84020</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5913,12 +5913,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>27,52%</t>
+          <t>27,59%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>37,73%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>131017</t>
+          <t>131581</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>167164</t>
+          <t>169032</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5948,12 +5948,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>36,87%</t>
         </is>
       </c>
     </row>
@@ -5976,12 +5976,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>48191</t>
+          <t>47142</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>75142</t>
+          <t>75552</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5991,12 +5991,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>32,04%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6011,12 +6011,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>47435</t>
+          <t>46375</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>68130</t>
+          <t>69750</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6026,12 +6026,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>30,59%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6046,12 +6046,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>100289</t>
+          <t>101005</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>136721</t>
+          <t>135596</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6061,12 +6061,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>29,57%</t>
         </is>
       </c>
     </row>
@@ -6089,12 +6089,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>24081</t>
+          <t>24636</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>48106</t>
+          <t>48959</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6104,12 +6104,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6124,12 +6124,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>22706</t>
+          <t>22718</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>40534</t>
+          <t>41279</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>18,54%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6159,12 +6159,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>51054</t>
+          <t>51919</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>80098</t>
+          <t>80211</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6174,12 +6174,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>17,49%</t>
         </is>
       </c>
     </row>
@@ -6202,12 +6202,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>17506</t>
+          <t>18365</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>39644</t>
+          <t>41834</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -6217,12 +6217,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -6237,12 +6237,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>15580</t>
+          <t>15249</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>31339</t>
+          <t>31288</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -6252,12 +6252,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -6272,12 +6272,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>36974</t>
+          <t>38350</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>65516</t>
+          <t>65869</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -6287,12 +6287,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>14,37%</t>
         </is>
       </c>
     </row>
@@ -6315,12 +6315,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2740</t>
+          <t>2498</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14032</t>
+          <t>14363</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -6330,12 +6330,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -6350,12 +6350,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>9554</t>
+          <t>9437</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>26653</t>
+          <t>26336</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -6365,12 +6365,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>14459</t>
+          <t>14950</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>35783</t>
+          <t>34825</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -6400,12 +6400,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,6%</t>
         </is>
       </c>
     </row>
@@ -6545,12 +6545,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>150028</t>
+          <t>150239</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>195591</t>
+          <t>195099</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6560,12 +6560,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6580,12 +6580,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>126458</t>
+          <t>121182</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>253676</t>
+          <t>253357</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6595,12 +6595,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6615,12 +6615,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>276916</t>
+          <t>276016</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>426278</t>
+          <t>425747</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6630,12 +6630,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>19,32%</t>
         </is>
       </c>
     </row>
@@ -6658,12 +6658,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>287865</t>
+          <t>287154</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>351271</t>
+          <t>349032</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6673,12 +6673,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>29,07%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>35,34%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6693,12 +6693,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>398827</t>
+          <t>401043</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>787288</t>
+          <t>816862</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6708,12 +6708,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>32,98%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>64,74%</t>
+          <t>67,18%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>708473</t>
+          <t>709187</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1238429</t>
+          <t>1249545</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6743,12 +6743,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>56,2%</t>
+          <t>56,7%</t>
         </is>
       </c>
     </row>
@@ -6771,12 +6771,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>154515</t>
+          <t>155754</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>208576</t>
+          <t>209132</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6786,12 +6786,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -6806,12 +6806,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>104994</t>
+          <t>100576</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>219853</t>
+          <t>219820</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6821,7 +6821,7 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
@@ -6841,12 +6841,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>253140</t>
+          <t>244056</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>409813</t>
+          <t>410154</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6856,12 +6856,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>18,61%</t>
         </is>
       </c>
     </row>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>114251</t>
+          <t>113722</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>164837</t>
+          <t>163971</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -6899,12 +6899,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -6919,12 +6919,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>64853</t>
+          <t>62670</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>140056</t>
+          <t>138971</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -6934,12 +6934,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -6954,12 +6954,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>168713</t>
+          <t>175251</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>285635</t>
+          <t>290410</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -6969,12 +6969,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>13,18%</t>
         </is>
       </c>
     </row>
@@ -6997,12 +6997,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>64231</t>
+          <t>64802</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>110643</t>
+          <t>106865</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7012,12 +7012,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7032,12 +7032,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>48646</t>
+          <t>48788</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>108304</t>
+          <t>107505</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7047,12 +7047,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7067,12 +7067,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>124670</t>
+          <t>121368</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>198586</t>
+          <t>201797</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7082,12 +7082,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>9,16%</t>
         </is>
       </c>
     </row>
@@ -7110,12 +7110,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>71312</t>
+          <t>71644</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>132536</t>
+          <t>133302</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7125,12 +7125,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7145,12 +7145,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>54284</t>
+          <t>59344</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>132143</t>
+          <t>128702</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7160,12 +7160,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7180,12 +7180,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>137906</t>
+          <t>139458</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>240839</t>
+          <t>241476</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -7195,12 +7195,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>10,96%</t>
         </is>
       </c>
     </row>
@@ -10998,12 +10998,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25976</t>
+          <t>25413</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>46081</t>
+          <t>46647</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -11013,12 +11013,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>25,93%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>47,01%</t>
+          <t>47,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -11033,12 +11033,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>45832</t>
+          <t>46861</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>67211</t>
+          <t>66898</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -11048,12 +11048,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>38,05%</t>
+          <t>38,9%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>55,8%</t>
+          <t>55,54%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -11068,12 +11068,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>78995</t>
+          <t>77363</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>107429</t>
+          <t>106190</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -11083,12 +11083,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>36,16%</t>
+          <t>35,41%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>49,17%</t>
+          <t>48,61%</t>
         </is>
       </c>
     </row>
@@ -11111,12 +11111,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7115</t>
+          <t>7047</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20523</t>
+          <t>19074</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -11126,12 +11126,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -11146,12 +11146,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13532</t>
+          <t>13818</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28765</t>
+          <t>27842</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -11161,12 +11161,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>23,11%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -11181,12 +11181,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>23389</t>
+          <t>22651</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>41145</t>
+          <t>42075</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -11196,12 +11196,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>19,26%</t>
         </is>
       </c>
     </row>
@@ -11224,12 +11224,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10501</t>
+          <t>11132</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31571</t>
+          <t>32567</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -11239,12 +11239,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>33,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -11259,12 +11259,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10989</t>
+          <t>9987</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>24323</t>
+          <t>23548</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -11274,12 +11274,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -11294,12 +11294,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>25304</t>
+          <t>24821</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>50407</t>
+          <t>50272</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -11309,12 +11309,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>23,01%</t>
         </is>
       </c>
     </row>
@@ -11337,12 +11337,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13131</t>
+          <t>12720</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31987</t>
+          <t>31047</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -11352,12 +11352,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>31,68%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -11372,12 +11372,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12458</t>
+          <t>12535</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30132</t>
+          <t>29453</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -11387,12 +11387,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -11407,12 +11407,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>28622</t>
+          <t>29350</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>53187</t>
+          <t>54517</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -11422,12 +11422,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>24,95%</t>
         </is>
       </c>
     </row>
@@ -11450,12 +11450,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3850</t>
+          <t>3827</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16051</t>
+          <t>14729</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -11465,12 +11465,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -11485,12 +11485,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2288</t>
+          <t>2233</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>8983</t>
+          <t>8740</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -11500,12 +11500,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -11520,12 +11520,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>7403</t>
+          <t>7547</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>19785</t>
+          <t>19541</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -11535,12 +11535,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>8,94%</t>
         </is>
       </c>
     </row>
@@ -11563,12 +11563,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12525</t>
+          <t>11078</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -11578,12 +11578,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -11598,12 +11598,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1761</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9201</t>
+          <t>8518</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -11613,12 +11613,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -11633,12 +11633,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>4177</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>15216</t>
+          <t>16365</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -11653,7 +11653,7 @@
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>7,49%</t>
         </is>
       </c>
     </row>
@@ -11793,12 +11793,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49454</t>
+          <t>49481</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>68060</t>
+          <t>68612</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -11808,12 +11808,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63971</t>
+          <t>63749</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>84704</t>
+          <t>84259</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -11843,12 +11843,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -11863,12 +11863,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>118406</t>
+          <t>119600</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>146336</t>
+          <t>147581</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -11878,12 +11878,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>20,79%</t>
         </is>
       </c>
     </row>
@@ -11906,12 +11906,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>59626</t>
+          <t>59386</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>81175</t>
+          <t>81439</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -11921,12 +11921,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -11941,12 +11941,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>71171</t>
+          <t>71577</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>92862</t>
+          <t>92830</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -11956,12 +11956,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>26,25%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -11976,12 +11976,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>135580</t>
+          <t>137012</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>165385</t>
+          <t>168312</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -11991,12 +11991,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>23,71%</t>
         </is>
       </c>
     </row>
@@ -12019,12 +12019,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>72619</t>
+          <t>72837</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>94956</t>
+          <t>94810</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -12034,12 +12034,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>26,62%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -12054,12 +12054,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>59403</t>
+          <t>60503</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>81259</t>
+          <t>81478</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -12069,12 +12069,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>23,04%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -12089,12 +12089,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>139294</t>
+          <t>138953</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>169437</t>
+          <t>169548</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -12104,12 +12104,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>23,89%</t>
         </is>
       </c>
     </row>
@@ -12132,12 +12132,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>63886</t>
+          <t>63367</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>85187</t>
+          <t>86204</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -12147,12 +12147,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -12167,12 +12167,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>51266</t>
+          <t>51606</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>70347</t>
+          <t>71141</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -12182,12 +12182,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -12202,12 +12202,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>119667</t>
+          <t>119634</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>150841</t>
+          <t>152279</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -12217,12 +12217,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>21,45%</t>
         </is>
       </c>
     </row>
@@ -12245,12 +12245,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>37580</t>
+          <t>37391</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>56598</t>
+          <t>56278</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -12280,12 +12280,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>35601</t>
+          <t>34897</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>53742</t>
+          <t>53447</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -12295,12 +12295,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -12315,12 +12315,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>78494</t>
+          <t>77690</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>103569</t>
+          <t>104014</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -12330,12 +12330,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>14,65%</t>
         </is>
       </c>
     </row>
@@ -12358,12 +12358,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19910</t>
+          <t>19616</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>32901</t>
+          <t>32426</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -12373,12 +12373,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -12393,12 +12393,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>16186</t>
+          <t>16099</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>28354</t>
+          <t>28569</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -12408,12 +12408,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -12428,12 +12428,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>39408</t>
+          <t>39069</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>57435</t>
+          <t>56502</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -12443,12 +12443,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>7,96%</t>
         </is>
       </c>
     </row>
@@ -12588,12 +12588,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>24494</t>
+          <t>24982</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>37291</t>
+          <t>37129</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -12603,12 +12603,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -12623,12 +12623,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>25878</t>
+          <t>25179</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>39313</t>
+          <t>38485</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -12638,12 +12638,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -12658,12 +12658,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>53325</t>
+          <t>52902</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>71290</t>
+          <t>71396</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -12673,12 +12673,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>14,08%</t>
         </is>
       </c>
     </row>
@@ -12701,12 +12701,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>35970</t>
+          <t>35090</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>50123</t>
+          <t>49674</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -12716,12 +12716,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -12736,12 +12736,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>52469</t>
+          <t>52314</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>70848</t>
+          <t>70764</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -12751,12 +12751,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>25,07%</t>
+          <t>25,05%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -12771,12 +12771,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>92520</t>
+          <t>92710</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>114758</t>
+          <t>116454</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -12786,12 +12786,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>22,96%</t>
         </is>
       </c>
     </row>
@@ -12814,12 +12814,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>41478</t>
+          <t>41436</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>59227</t>
+          <t>58788</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -12829,12 +12829,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>26,17%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -12849,12 +12849,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>46995</t>
+          <t>47003</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>65207</t>
+          <t>65515</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -12864,12 +12864,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -12884,12 +12884,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>93753</t>
+          <t>94828</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>120608</t>
+          <t>119914</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -12899,12 +12899,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>23,78%</t>
+          <t>23,64%</t>
         </is>
       </c>
     </row>
@@ -12927,12 +12927,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>49896</t>
+          <t>50181</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>69073</t>
+          <t>68088</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -12942,12 +12942,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>30,31%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -12962,12 +12962,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>57783</t>
+          <t>57222</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>77064</t>
+          <t>78135</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -12977,12 +12977,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>27,65%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -12997,12 +12997,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>111863</t>
+          <t>112404</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>141544</t>
+          <t>139098</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -13012,12 +13012,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>27,43%</t>
         </is>
       </c>
     </row>
@@ -13040,12 +13040,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>26020</t>
+          <t>26151</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>41405</t>
+          <t>42395</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -13055,12 +13055,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -13075,12 +13075,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>43903</t>
+          <t>44793</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>64644</t>
+          <t>64636</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -13090,7 +13090,7 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
@@ -13110,12 +13110,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>73982</t>
+          <t>74337</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>100671</t>
+          <t>100040</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -13125,12 +13125,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>19,73%</t>
         </is>
       </c>
     </row>
@@ -13153,12 +13153,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>7302</t>
+          <t>7195</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>15699</t>
+          <t>15502</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -13168,47 +13168,47 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>6,9%</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>13105</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>9183</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>18185</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>4,64%</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
           <t>3,25%</t>
         </is>
       </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>6,99%</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>13105</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>9064</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>17970</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>4,64%</t>
-        </is>
-      </c>
-      <c r="O23" s="2" t="inlineStr">
-        <is>
-          <t>3,21%</t>
-        </is>
-      </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -13223,12 +13223,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>18210</t>
+          <t>17693</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>31034</t>
+          <t>30447</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -13238,12 +13238,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>6,0%</t>
         </is>
       </c>
     </row>
@@ -13383,12 +13383,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>109670</t>
+          <t>109288</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>139961</t>
+          <t>139229</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -13398,12 +13398,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -13418,12 +13418,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>145330</t>
+          <t>145436</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>179315</t>
+          <t>179608</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -13433,12 +13433,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -13453,12 +13453,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>264163</t>
+          <t>262865</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>308966</t>
+          <t>308580</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -13468,12 +13468,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>21,5%</t>
         </is>
       </c>
     </row>
@@ -13496,12 +13496,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>108982</t>
+          <t>108104</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>137480</t>
+          <t>136897</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -13511,12 +13511,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -13531,12 +13531,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>147699</t>
+          <t>146698</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>180271</t>
+          <t>179611</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -13546,12 +13546,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -13566,12 +13566,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>265678</t>
+          <t>268227</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>310714</t>
+          <t>310963</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -13581,12 +13581,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>21,66%</t>
         </is>
       </c>
     </row>
@@ -13609,12 +13609,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>135767</t>
+          <t>136724</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>171220</t>
+          <t>170955</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -13624,12 +13624,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -13644,12 +13644,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>128160</t>
+          <t>126410</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>159455</t>
+          <t>158574</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -13659,12 +13659,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -13679,12 +13679,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>272409</t>
+          <t>271873</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>320385</t>
+          <t>321549</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -13694,12 +13694,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>22,4%</t>
         </is>
       </c>
     </row>
@@ -13722,12 +13722,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>136542</t>
+          <t>136058</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>173263</t>
+          <t>169636</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -13737,12 +13737,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -13757,12 +13757,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>131639</t>
+          <t>131565</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>165317</t>
+          <t>164286</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -13772,12 +13772,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -13792,12 +13792,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>278819</t>
+          <t>278376</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>326601</t>
+          <t>327303</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -13807,12 +13807,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>22,8%</t>
         </is>
       </c>
     </row>
@@ -13835,12 +13835,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>74248</t>
+          <t>74173</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>101960</t>
+          <t>100367</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -13850,12 +13850,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -13870,12 +13870,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>88204</t>
+          <t>90241</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>116981</t>
+          <t>118228</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -13885,12 +13885,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -13905,12 +13905,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>169885</t>
+          <t>169363</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>208669</t>
+          <t>208423</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -13920,12 +13920,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>14,52%</t>
         </is>
       </c>
     </row>
@@ -13948,12 +13948,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>32711</t>
+          <t>32560</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>49864</t>
+          <t>50404</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -13963,12 +13963,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -13983,12 +13983,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>31463</t>
+          <t>31478</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>48346</t>
+          <t>48450</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -14018,12 +14018,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>68118</t>
+          <t>68957</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>91020</t>
+          <t>93507</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -14033,12 +14033,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,51%</t>
         </is>
       </c>
     </row>
